--- a/正規化/正規化練習.xlsx
+++ b/正規化/正規化練習.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\資料庫\正規化\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE072B3-495A-4860-9EA9-F89B929550CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9997CB95-4E43-45FD-BB61-122F9EA8D142}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" firstSheet="2" activeTab="11" xr2:uid="{20139520-1F27-487E-A6A2-3251D4C28F77}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="3" xr2:uid="{20139520-1F27-487E-A6A2-3251D4C28F77}"/>
   </bookViews>
   <sheets>
     <sheet name="常見的設計型態一" sheetId="1" r:id="rId1"/>
@@ -1623,7 +1623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D612A8D-E293-4249-AA59-10BE38ABE8CC}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2155,7 +2155,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2851,8 +2851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AA038A-1DDB-4FA4-8BCB-A08F61C8EC95}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3418,7 +3418,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3478,7 +3478,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C6"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3565,7 +3565,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3731,6 +3731,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E9">
+    <sortCondition ref="A2:A9"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
